--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-01_beg.xlsx
@@ -752,7 +752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   8:36 PM \ Rainy \ Visibility: 12 km
+    <t xml:space="preserve">[name=""]   8:36 P.M. \ Rainy \ Visibility: 12 km
 </t>
   </si>
   <si>
